--- a/data/pca/factorExposure/factorExposure_2017-04-13.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-04-13.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01975809634308758</v>
+        <v>0.01024228627609368</v>
       </c>
       <c r="C2">
-        <v>-0.01300571121811715</v>
+        <v>-0.04159287290678784</v>
       </c>
       <c r="D2">
-        <v>0.03357692597869529</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.02959736180394959</v>
+      </c>
+      <c r="E2">
+        <v>-0.03683008875617216</v>
+      </c>
+      <c r="F2">
+        <v>0.007245099269748948</v>
+      </c>
+      <c r="G2">
+        <v>0.1013618129500457</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.02040502222340674</v>
+        <v>0.04140019718163141</v>
       </c>
       <c r="C3">
-        <v>0.01158959962584763</v>
+        <v>-0.1016599862238947</v>
       </c>
       <c r="D3">
-        <v>0.1053264591456533</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.01766581272921324</v>
+      </c>
+      <c r="E3">
+        <v>-0.1008779324658155</v>
+      </c>
+      <c r="F3">
+        <v>0.002826984478483054</v>
+      </c>
+      <c r="G3">
+        <v>0.1648100917744152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02469517431575186</v>
+        <v>0.05649389794516594</v>
       </c>
       <c r="C4">
-        <v>-0.004183356474813105</v>
+        <v>-0.06790067908394211</v>
       </c>
       <c r="D4">
-        <v>0.08371872996196326</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.02450479288847531</v>
+      </c>
+      <c r="E4">
+        <v>-0.03289965149200556</v>
+      </c>
+      <c r="F4">
+        <v>0.01132224786408371</v>
+      </c>
+      <c r="G4">
+        <v>0.1010043318146583</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01022214751218415</v>
+        <v>0.03685811871153645</v>
       </c>
       <c r="C6">
-        <v>-0.01253412819752944</v>
+        <v>-0.05109868449942215</v>
       </c>
       <c r="D6">
-        <v>0.07727690659748053</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.01711596890737294</v>
+      </c>
+      <c r="E6">
+        <v>-0.03664775496298413</v>
+      </c>
+      <c r="F6">
+        <v>0.008700217325725306</v>
+      </c>
+      <c r="G6">
+        <v>0.08403128403192009</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.005822575645905878</v>
+        <v>0.02089145725838296</v>
       </c>
       <c r="C7">
-        <v>-0.01168544409583645</v>
+        <v>-0.03941167443413619</v>
       </c>
       <c r="D7">
-        <v>0.03398406434356332</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.01402027227162858</v>
+      </c>
+      <c r="E7">
+        <v>-0.00619831824043913</v>
+      </c>
+      <c r="F7">
+        <v>-0.003917220029711767</v>
+      </c>
+      <c r="G7">
+        <v>0.1221264273351626</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.001224594379957122</v>
+        <v>0.003825219174501634</v>
       </c>
       <c r="C8">
-        <v>0.0006013839039124484</v>
+        <v>-0.02532531845016957</v>
       </c>
       <c r="D8">
-        <v>-0.0006805646493931234</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.003795363213866906</v>
+      </c>
+      <c r="E8">
+        <v>-0.02838083191465355</v>
+      </c>
+      <c r="F8">
+        <v>0.007806860621439121</v>
+      </c>
+      <c r="G8">
+        <v>0.06581100338833144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01591492272700869</v>
+        <v>0.03419375091728993</v>
       </c>
       <c r="C9">
-        <v>-0.002276053036582082</v>
+        <v>-0.05033950655813708</v>
       </c>
       <c r="D9">
-        <v>0.06248771198710901</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.01649269555263574</v>
+      </c>
+      <c r="E9">
+        <v>-0.02280335308316417</v>
+      </c>
+      <c r="F9">
+        <v>0.006996889110247288</v>
+      </c>
+      <c r="G9">
+        <v>0.1004476481057808</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.102120760502927</v>
+        <v>0.0989195039465276</v>
       </c>
       <c r="C10">
-        <v>0.1571107246853095</v>
+        <v>0.182947414503999</v>
       </c>
       <c r="D10">
-        <v>-0.09295679344436475</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.01561441614695086</v>
+      </c>
+      <c r="E10">
+        <v>-0.01919502153444934</v>
+      </c>
+      <c r="F10">
+        <v>-0.02096922207851953</v>
+      </c>
+      <c r="G10">
+        <v>0.05555076900982997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-3.83199247353087e-05</v>
+        <v>0.03434446586382424</v>
       </c>
       <c r="C11">
-        <v>-0.001819715899851867</v>
+        <v>-0.05337959357844559</v>
       </c>
       <c r="D11">
-        <v>0.05359445271745766</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.002548822947787851</v>
+      </c>
+      <c r="E11">
+        <v>-0.01767905097149912</v>
+      </c>
+      <c r="F11">
+        <v>0.01996396000030867</v>
+      </c>
+      <c r="G11">
+        <v>0.09122510127847128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.004040298513836591</v>
+        <v>0.03591295448284906</v>
       </c>
       <c r="C12">
-        <v>-0.004199675228246678</v>
+        <v>-0.04852375082323706</v>
       </c>
       <c r="D12">
-        <v>0.04591720406740391</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.006613157448721947</v>
+      </c>
+      <c r="E12">
+        <v>-0.009448970965708497</v>
+      </c>
+      <c r="F12">
+        <v>0.001397134504281627</v>
+      </c>
+      <c r="G12">
+        <v>0.08293134465141075</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.02271251280174013</v>
+        <v>0.01555424691568333</v>
       </c>
       <c r="C13">
-        <v>-0.004501912010147327</v>
+        <v>-0.04184514723234306</v>
       </c>
       <c r="D13">
-        <v>0.03790224085485816</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.02656461034131165</v>
+      </c>
+      <c r="E13">
+        <v>-0.03691278960685991</v>
+      </c>
+      <c r="F13">
+        <v>0.006636650753033589</v>
+      </c>
+      <c r="G13">
+        <v>0.1393000857717596</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.006525416801522108</v>
+        <v>0.008315517018874856</v>
       </c>
       <c r="C14">
-        <v>-0.002730971540663278</v>
+        <v>-0.0290674509747278</v>
       </c>
       <c r="D14">
-        <v>0.01949628632483297</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.01025595418878789</v>
+      </c>
+      <c r="E14">
+        <v>-0.006932286031140121</v>
+      </c>
+      <c r="F14">
+        <v>-0.007462033646255027</v>
+      </c>
+      <c r="G14">
+        <v>0.1053613787785209</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.002530254678994529</v>
+        <v>0.03290297593180661</v>
       </c>
       <c r="C16">
-        <v>0.002311484361788143</v>
+        <v>-0.04653610530734535</v>
       </c>
       <c r="D16">
-        <v>0.04253602953989307</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.002033600186007139</v>
+      </c>
+      <c r="E16">
+        <v>-0.01543998700423672</v>
+      </c>
+      <c r="F16">
+        <v>0.001712417233538254</v>
+      </c>
+      <c r="G16">
+        <v>0.09297188963860464</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01239425731730428</v>
+        <v>0.02301458158927692</v>
       </c>
       <c r="C19">
-        <v>-0.004734900023318861</v>
+        <v>-0.05067218395072418</v>
       </c>
       <c r="D19">
-        <v>0.04087682498298593</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.01907301732270381</v>
+      </c>
+      <c r="E19">
+        <v>-0.07842317342892463</v>
+      </c>
+      <c r="F19">
+        <v>0.02087244472203365</v>
+      </c>
+      <c r="G19">
+        <v>0.1382764042008558</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.007142386780277048</v>
+        <v>0.01533639878876131</v>
       </c>
       <c r="C20">
-        <v>-0.008404988682363439</v>
+        <v>-0.0414775054145449</v>
       </c>
       <c r="D20">
-        <v>0.03558538980585223</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.01431597841321687</v>
+      </c>
+      <c r="E20">
+        <v>-0.03816954500945112</v>
+      </c>
+      <c r="F20">
+        <v>-0.0110204825647385</v>
+      </c>
+      <c r="G20">
+        <v>0.1106782515706423</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01593793435038532</v>
+        <v>0.01250742312985597</v>
       </c>
       <c r="C21">
-        <v>0.0003311740413825594</v>
+        <v>-0.03827628500000494</v>
       </c>
       <c r="D21">
-        <v>0.02467107722450217</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.0192262618268857</v>
+      </c>
+      <c r="E21">
+        <v>-0.049993933244836</v>
+      </c>
+      <c r="F21">
+        <v>-0.0005670723908582037</v>
+      </c>
+      <c r="G21">
+        <v>0.1378822224642667</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.001341141917760302</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.0002815894945092234</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.000622664374971806</v>
+      </c>
+      <c r="E22">
+        <v>-0.003870214576745344</v>
+      </c>
+      <c r="F22">
+        <v>0.002229223053630924</v>
+      </c>
+      <c r="G22">
+        <v>0.00572560807200136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.001346681711981149</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.0002933570595623909</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.0006214843227784378</v>
+      </c>
+      <c r="E23">
+        <v>-0.003857549786296158</v>
+      </c>
+      <c r="F23">
+        <v>0.002234806914714402</v>
+      </c>
+      <c r="G23">
+        <v>0.005617986572425161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.0001748056372801463</v>
+        <v>0.02822768252689564</v>
       </c>
       <c r="C24">
-        <v>-0.009127181188375633</v>
+        <v>-0.05102419776406333</v>
       </c>
       <c r="D24">
-        <v>0.04532081441451639</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.007330022347939323</v>
+      </c>
+      <c r="E24">
+        <v>-0.01260218481700078</v>
+      </c>
+      <c r="F24">
+        <v>0.01194444500308008</v>
+      </c>
+      <c r="G24">
+        <v>0.09151358551983138</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01457464797384182</v>
+        <v>0.04242330294491103</v>
       </c>
       <c r="C25">
-        <v>0.00241543979877152</v>
+        <v>-0.05820076084601614</v>
       </c>
       <c r="D25">
-        <v>0.0579824767059563</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.01132231013755642</v>
+      </c>
+      <c r="E25">
+        <v>-0.004312986287264398</v>
+      </c>
+      <c r="F25">
+        <v>0.005671079693129436</v>
+      </c>
+      <c r="G25">
+        <v>0.09990991232334513</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02085613206024705</v>
+        <v>0.01386333270250492</v>
       </c>
       <c r="C26">
-        <v>-0.008542097701474708</v>
+        <v>-0.01213336915699255</v>
       </c>
       <c r="D26">
-        <v>0.001812371420338118</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02415278900469098</v>
+      </c>
+      <c r="E26">
+        <v>-0.009255550832460597</v>
+      </c>
+      <c r="F26">
+        <v>-0.008797338867856243</v>
+      </c>
+      <c r="G26">
+        <v>0.08342059150494964</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.1462269793943785</v>
+        <v>0.1253664738661514</v>
       </c>
       <c r="C28">
-        <v>0.1987374407658095</v>
+        <v>0.2399848526991265</v>
       </c>
       <c r="D28">
-        <v>-0.119384883035221</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.00653159174146648</v>
+      </c>
+      <c r="E28">
+        <v>-0.008457792939758599</v>
+      </c>
+      <c r="F28">
+        <v>-0.01436670924709003</v>
+      </c>
+      <c r="G28">
+        <v>0.0477637083364966</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.0107599124841016</v>
+        <v>0.009063487609248872</v>
       </c>
       <c r="C29">
-        <v>0.003907694130170394</v>
+        <v>-0.0231058214645262</v>
       </c>
       <c r="D29">
-        <v>0.01937522910963657</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.009301870083682282</v>
+      </c>
+      <c r="E29">
+        <v>-0.004273797679609588</v>
+      </c>
+      <c r="F29">
+        <v>-0.01434053602837304</v>
+      </c>
+      <c r="G29">
+        <v>0.09690390644864082</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.01646191228605531</v>
+        <v>0.04170550600324444</v>
       </c>
       <c r="C30">
-        <v>-0.01891124924268895</v>
+        <v>-0.06980341572519796</v>
       </c>
       <c r="D30">
-        <v>0.09860233015268895</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.02900253988827858</v>
+      </c>
+      <c r="E30">
+        <v>-0.06028995372787847</v>
+      </c>
+      <c r="F30">
+        <v>0.04604666471514544</v>
+      </c>
+      <c r="G30">
+        <v>0.131683950751465</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.02017579674582099</v>
+        <v>0.0532689565835308</v>
       </c>
       <c r="C31">
-        <v>0.02025507529749784</v>
+        <v>-0.03789854936624286</v>
       </c>
       <c r="D31">
-        <v>0.03178605423628594</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.003832267775179614</v>
+      </c>
+      <c r="E31">
+        <v>-0.0002795682078348917</v>
+      </c>
+      <c r="F31">
+        <v>-0.0405802556340507</v>
+      </c>
+      <c r="G31">
+        <v>0.1008095499992179</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.0004337203035954128</v>
+        <v>0.003018519799516295</v>
       </c>
       <c r="C32">
-        <v>0.01525840214175148</v>
+        <v>-0.02385439349817385</v>
       </c>
       <c r="D32">
-        <v>0.00451849468930404</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.002914111459774776</v>
+      </c>
+      <c r="E32">
+        <v>-0.0341019295412984</v>
+      </c>
+      <c r="F32">
+        <v>0.04323317568580949</v>
+      </c>
+      <c r="G32">
+        <v>0.0862210608530303</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01045660962660684</v>
+        <v>0.02822058845973753</v>
       </c>
       <c r="C33">
-        <v>-0.004749004906084082</v>
+        <v>-0.05009726112831898</v>
       </c>
       <c r="D33">
-        <v>0.04413095349064391</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.01582686916819494</v>
+      </c>
+      <c r="E33">
+        <v>-0.04391503892488748</v>
+      </c>
+      <c r="F33">
+        <v>0.0155976078894859</v>
+      </c>
+      <c r="G33">
+        <v>0.1630377613397452</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.001941220845687847</v>
+        <v>0.03984801276324049</v>
       </c>
       <c r="C34">
-        <v>0.01250727117844006</v>
+        <v>-0.05956821886498023</v>
       </c>
       <c r="D34">
-        <v>0.05682509166987926</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.004420215623070004</v>
+      </c>
+      <c r="E34">
+        <v>-0.007729407277735757</v>
+      </c>
+      <c r="F34">
+        <v>0.02068130299130295</v>
+      </c>
+      <c r="G34">
+        <v>0.09510925358990828</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01624624745356182</v>
+        <v>0.01630430527482532</v>
       </c>
       <c r="C36">
-        <v>0.004899877660113231</v>
+        <v>-0.009429338943794391</v>
       </c>
       <c r="D36">
-        <v>0.004773352513668051</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.01256421732093091</v>
+      </c>
+      <c r="E36">
+        <v>-0.008443157487416293</v>
+      </c>
+      <c r="F36">
+        <v>-0.00728726174279326</v>
+      </c>
+      <c r="G36">
+        <v>0.09239390541795799</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.00814219424653586</v>
+        <v>0.03129506953803013</v>
       </c>
       <c r="C38">
-        <v>0.0242423131566088</v>
+        <v>-0.03014419497659785</v>
       </c>
       <c r="D38">
-        <v>0.04170735999336816</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.007369924219752132</v>
+      </c>
+      <c r="E38">
+        <v>-0.007104146658752896</v>
+      </c>
+      <c r="F38">
+        <v>-0.01790597262872939</v>
+      </c>
+      <c r="G38">
+        <v>0.08745362226969616</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.006973041124208527</v>
+        <v>0.03644045465616238</v>
       </c>
       <c r="C39">
-        <v>-0.02608216839991383</v>
+        <v>-0.07990215379895781</v>
       </c>
       <c r="D39">
-        <v>0.0996120737259803</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.01181966761418704</v>
+      </c>
+      <c r="E39">
+        <v>-0.02948032457755336</v>
+      </c>
+      <c r="F39">
+        <v>0.02310056726461659</v>
+      </c>
+      <c r="G39">
+        <v>0.09033022869895761</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01596839791622068</v>
+        <v>0.01366587904468125</v>
       </c>
       <c r="C40">
-        <v>0.004691996269154961</v>
+        <v>-0.0402561823643113</v>
       </c>
       <c r="D40">
-        <v>0.03541851311545627</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.01488860211767517</v>
+      </c>
+      <c r="E40">
+        <v>-0.03154869523677108</v>
+      </c>
+      <c r="F40">
+        <v>-0.006002329656701964</v>
+      </c>
+      <c r="G40">
+        <v>0.1220451905253783</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.01359045626147182</v>
+        <v>0.02056330811112275</v>
       </c>
       <c r="C41">
-        <v>0.01420716356130761</v>
+        <v>-0.002417206299133384</v>
       </c>
       <c r="D41">
-        <v>-0.008415894576797579</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.004489762763138408</v>
+      </c>
+      <c r="E41">
+        <v>-0.007328549088896887</v>
+      </c>
+      <c r="F41">
+        <v>-0.01520118372580957</v>
+      </c>
+      <c r="G41">
+        <v>0.08668066188554595</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.06696155715586891</v>
+        <v>0.01032578977263833</v>
       </c>
       <c r="C42">
-        <v>-0.0691396635740751</v>
+        <v>-0.03593563468955314</v>
       </c>
       <c r="D42">
-        <v>0.1653442801478826</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.08964425315002146</v>
+      </c>
+      <c r="E42">
+        <v>-0.02022945477320264</v>
+      </c>
+      <c r="F42">
+        <v>-0.04693531729851648</v>
+      </c>
+      <c r="G42">
+        <v>-0.02796525515903885</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.01431611568846273</v>
+        <v>0.035119529718862</v>
       </c>
       <c r="C43">
-        <v>0.01382770744816249</v>
+        <v>-0.01819206808301486</v>
       </c>
       <c r="D43">
-        <v>-0.008070176599277322</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.005914602612393197</v>
+      </c>
+      <c r="E43">
+        <v>-0.02080208999690143</v>
+      </c>
+      <c r="F43">
+        <v>-0.007631252940916118</v>
+      </c>
+      <c r="G43">
+        <v>0.1207416493945317</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.002050218007052596</v>
+        <v>0.01375028880805095</v>
       </c>
       <c r="C44">
-        <v>-0.002263383980866297</v>
+        <v>-0.05907444408354241</v>
       </c>
       <c r="D44">
-        <v>0.05393976061864843</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.007024924334194026</v>
+      </c>
+      <c r="E44">
+        <v>-0.02540789946041599</v>
+      </c>
+      <c r="F44">
+        <v>-0.003116293725353032</v>
+      </c>
+      <c r="G44">
+        <v>0.1113626585242133</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.01062867973354771</v>
+        <v>0.008017528568262043</v>
       </c>
       <c r="C46">
-        <v>-0.001330209982624481</v>
+        <v>-0.01420360256807277</v>
       </c>
       <c r="D46">
-        <v>-0.004852412061511592</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01273495712092293</v>
+      </c>
+      <c r="E46">
+        <v>-0.001509563161991753</v>
+      </c>
+      <c r="F46">
+        <v>-0.01539386223356739</v>
+      </c>
+      <c r="G46">
+        <v>0.1065667185404014</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.0148792859376544</v>
+        <v>0.07744335255053501</v>
       </c>
       <c r="C47">
-        <v>0.02375500078766988</v>
+        <v>-0.06849342937783605</v>
       </c>
       <c r="D47">
-        <v>0.07266096370083708</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.004700595997478504</v>
+      </c>
+      <c r="E47">
+        <v>0.005287820548052369</v>
+      </c>
+      <c r="F47">
+        <v>-0.05385333765305286</v>
+      </c>
+      <c r="G47">
+        <v>0.08710722474236292</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.008594085221434511</v>
+        <v>0.0188839984556555</v>
       </c>
       <c r="C48">
-        <v>0.01021820143963069</v>
+        <v>-0.01265343436571722</v>
       </c>
       <c r="D48">
-        <v>0.01790327836656948</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.002304823810250285</v>
+      </c>
+      <c r="E48">
+        <v>-0.00481404208610678</v>
+      </c>
+      <c r="F48">
+        <v>-0.01888326747817849</v>
+      </c>
+      <c r="G48">
+        <v>0.09775482919941413</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.02191266375493305</v>
+        <v>0.07559326364440677</v>
       </c>
       <c r="C50">
-        <v>0.03100483507509619</v>
+        <v>-0.0719271361946207</v>
       </c>
       <c r="D50">
-        <v>0.0705114112621166</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.002142209225597054</v>
+      </c>
+      <c r="E50">
+        <v>0.002705773282476255</v>
+      </c>
+      <c r="F50">
+        <v>-0.05660135950200258</v>
+      </c>
+      <c r="G50">
+        <v>0.0951464817380884</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.007980262939129748</v>
+        <v>0.01445689504375786</v>
       </c>
       <c r="C51">
-        <v>0.001252808634654346</v>
+        <v>-0.03630381401020831</v>
       </c>
       <c r="D51">
-        <v>0.0179676958529397</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.01074891868532027</v>
+      </c>
+      <c r="E51">
+        <v>-0.02571631301430162</v>
+      </c>
+      <c r="F51">
+        <v>0.02526202945863847</v>
+      </c>
+      <c r="G51">
+        <v>0.1226575750360931</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.02363336505299844</v>
+        <v>0.08198026230988022</v>
       </c>
       <c r="C53">
-        <v>0.03226079251925471</v>
+        <v>-0.08513389331138145</v>
       </c>
       <c r="D53">
-        <v>0.1292618293429376</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.003374891053729446</v>
+      </c>
+      <c r="E53">
+        <v>0.02503754432192906</v>
+      </c>
+      <c r="F53">
+        <v>-0.0646982967351174</v>
+      </c>
+      <c r="G53">
+        <v>0.09364229445507249</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.01194350088060895</v>
+        <v>0.03166942093645642</v>
       </c>
       <c r="C54">
-        <v>0.02267404745589545</v>
+        <v>-0.01874238318848887</v>
       </c>
       <c r="D54">
-        <v>-0.001944231884980261</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.00123159499459099</v>
+      </c>
+      <c r="E54">
+        <v>-0.01827427038574534</v>
+      </c>
+      <c r="F54">
+        <v>-0.005037463566465113</v>
+      </c>
+      <c r="G54">
+        <v>0.1070547865158228</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.0129514248676851</v>
+        <v>0.07209066631343737</v>
       </c>
       <c r="C55">
-        <v>0.0188491046657716</v>
+        <v>-0.06862497116840285</v>
       </c>
       <c r="D55">
-        <v>0.1022107393810404</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.004910975738147427</v>
+      </c>
+      <c r="E55">
+        <v>0.02275762497810535</v>
+      </c>
+      <c r="F55">
+        <v>-0.06441899344621561</v>
+      </c>
+      <c r="G55">
+        <v>0.07006152488178849</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.02509923383971883</v>
+        <v>0.1362893783075793</v>
       </c>
       <c r="C56">
-        <v>0.04069822745805476</v>
+        <v>-0.1075571668917942</v>
       </c>
       <c r="D56">
-        <v>0.1580113796394363</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.01233962207060177</v>
+      </c>
+      <c r="E56">
+        <v>0.03259685492561181</v>
+      </c>
+      <c r="F56">
+        <v>-0.08151056462865604</v>
+      </c>
+      <c r="G56">
+        <v>0.04387317918202894</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.02291956369683492</v>
+        <v>0.005834571945533287</v>
       </c>
       <c r="C57">
-        <v>-0.006543406500240228</v>
+        <v>-0.006721198794193189</v>
       </c>
       <c r="D57">
-        <v>0.03394876171799754</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.0228394464443925</v>
+      </c>
+      <c r="E57">
+        <v>-0.02501900195513019</v>
+      </c>
+      <c r="F57">
+        <v>0.009156937053325058</v>
+      </c>
+      <c r="G57">
+        <v>0.02344720771009122</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.01635653951315115</v>
+        <v>0.05374166518644041</v>
       </c>
       <c r="C58">
-        <v>0.01961085214962453</v>
+        <v>-0.0453544999154665</v>
       </c>
       <c r="D58">
-        <v>0.1339909200798308</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.01999866926816945</v>
+      </c>
+      <c r="E58">
+        <v>-0.9144315955820341</v>
+      </c>
+      <c r="F58">
+        <v>-0.2681975227891277</v>
+      </c>
+      <c r="G58">
+        <v>-0.2248304089884093</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1568019070604048</v>
+        <v>0.160214510739448</v>
       </c>
       <c r="C59">
-        <v>0.2217162550315921</v>
+        <v>0.2052832204682488</v>
       </c>
       <c r="D59">
-        <v>-0.1043060814922758</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.01182577704360571</v>
+      </c>
+      <c r="E59">
+        <v>-0.01848204105459636</v>
+      </c>
+      <c r="F59">
+        <v>-0.003269094468385576</v>
+      </c>
+      <c r="G59">
+        <v>0.04143230996775243</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.1288630773038948</v>
+        <v>0.2884534038675403</v>
       </c>
       <c r="C60">
-        <v>0.1489707831470342</v>
+        <v>-0.10834132287159</v>
       </c>
       <c r="D60">
-        <v>0.1451584384408519</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.01128653952872656</v>
+      </c>
+      <c r="E60">
+        <v>0.002009382443784457</v>
+      </c>
+      <c r="F60">
+        <v>0.3368903236769681</v>
+      </c>
+      <c r="G60">
+        <v>-0.1642019208463384</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.001711245294029636</v>
+        <v>0.03914109522672807</v>
       </c>
       <c r="C61">
-        <v>-0.003621559884813198</v>
+        <v>-0.06604389087052955</v>
       </c>
       <c r="D61">
-        <v>0.07573208877563214</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.0055350361597873</v>
+      </c>
+      <c r="E61">
+        <v>-0.0236630550193097</v>
+      </c>
+      <c r="F61">
+        <v>0.01393082164755931</v>
+      </c>
+      <c r="G61">
+        <v>0.09608216889106047</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.006328917392352963</v>
+        <v>0.01566675986170046</v>
       </c>
       <c r="C63">
-        <v>-0.004410136605164225</v>
+        <v>-0.0303099612867444</v>
       </c>
       <c r="D63">
-        <v>0.02289196426767134</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.008599851911247838</v>
+      </c>
+      <c r="E63">
+        <v>-0.00345988836453183</v>
+      </c>
+      <c r="F63">
+        <v>-0.0195204276515891</v>
+      </c>
+      <c r="G63">
+        <v>0.09387732805218539</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.02110361558556779</v>
+        <v>0.04897443091481481</v>
       </c>
       <c r="C64">
-        <v>0.02019845163986777</v>
+        <v>-0.04701955356759527</v>
       </c>
       <c r="D64">
-        <v>0.06319285385107146</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.006616733725550852</v>
+      </c>
+      <c r="E64">
+        <v>-0.009597959743364588</v>
+      </c>
+      <c r="F64">
+        <v>0.008012682650276748</v>
+      </c>
+      <c r="G64">
+        <v>0.1036801268813551</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.02281963906086512</v>
+        <v>0.0753153357692572</v>
       </c>
       <c r="C65">
-        <v>0.00158691118087566</v>
+        <v>-0.05785914114093512</v>
       </c>
       <c r="D65">
-        <v>0.1124969150787477</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.01659435108709185</v>
+      </c>
+      <c r="E65">
+        <v>-0.03841709092402335</v>
+      </c>
+      <c r="F65">
+        <v>0.02980649414006339</v>
+      </c>
+      <c r="G65">
+        <v>0.04135041071188439</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.005926120734493855</v>
+        <v>0.05116256069107207</v>
       </c>
       <c r="C66">
-        <v>-0.02400299993138674</v>
+        <v>-0.1069216077252235</v>
       </c>
       <c r="D66">
-        <v>0.1331599214157818</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.0116873759612441</v>
+      </c>
+      <c r="E66">
+        <v>-0.04023586167148117</v>
+      </c>
+      <c r="F66">
+        <v>0.03484076663216828</v>
+      </c>
+      <c r="G66">
+        <v>0.1039853099412683</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.02221384669506893</v>
+        <v>0.05399087064484219</v>
       </c>
       <c r="C67">
-        <v>0.0380770333993232</v>
+        <v>-0.03335499054825151</v>
       </c>
       <c r="D67">
-        <v>0.06051055076522052</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.005857135137202393</v>
+      </c>
+      <c r="E67">
+        <v>0.001609026025259631</v>
+      </c>
+      <c r="F67">
+        <v>-0.01752430771275327</v>
+      </c>
+      <c r="G67">
+        <v>0.0760238797969025</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1705898664567873</v>
+        <v>0.1556281515766332</v>
       </c>
       <c r="C68">
-        <v>0.2084103346479867</v>
+        <v>0.2686878738541752</v>
       </c>
       <c r="D68">
-        <v>-0.14687637825953</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.005407941435024506</v>
+      </c>
+      <c r="E68">
+        <v>-0.01183778130231906</v>
+      </c>
+      <c r="F68">
+        <v>-0.03766763307617545</v>
+      </c>
+      <c r="G68">
+        <v>0.02974594281102005</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.01841882373545494</v>
+        <v>0.0827823011110824</v>
       </c>
       <c r="C69">
-        <v>0.03523369094168132</v>
+        <v>-0.07016792291752726</v>
       </c>
       <c r="D69">
-        <v>0.07897934042032989</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008788670305490713</v>
+      </c>
+      <c r="E69">
+        <v>0.02065386453559029</v>
+      </c>
+      <c r="F69">
+        <v>-0.03734555912714387</v>
+      </c>
+      <c r="G69">
+        <v>0.10191184514554</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1369349087573019</v>
+        <v>0.1409292921014791</v>
       </c>
       <c r="C71">
-        <v>0.1779684545567397</v>
+        <v>0.2305359106212592</v>
       </c>
       <c r="D71">
-        <v>-0.1028689649549664</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.003089330415065459</v>
+      </c>
+      <c r="E71">
+        <v>-0.03234594146267251</v>
+      </c>
+      <c r="F71">
+        <v>-0.02406415743160832</v>
+      </c>
+      <c r="G71">
+        <v>0.07092146940913742</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.005506603878965312</v>
+        <v>0.08569830762017371</v>
       </c>
       <c r="C72">
-        <v>0.01664324292298092</v>
+        <v>-0.06784590307891673</v>
       </c>
       <c r="D72">
-        <v>0.1092422715681112</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.008346096661173105</v>
+      </c>
+      <c r="E72">
+        <v>0.007634458373842251</v>
+      </c>
+      <c r="F72">
+        <v>0.0390195621331175</v>
+      </c>
+      <c r="G72">
+        <v>0.08666444539016718</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.1558609979269444</v>
+        <v>0.3768903686766651</v>
       </c>
       <c r="C73">
-        <v>0.1689449041318626</v>
+        <v>-0.1167858290196163</v>
       </c>
       <c r="D73">
-        <v>0.2706089890566066</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.02007305741667828</v>
+      </c>
+      <c r="E73">
+        <v>-0.07609857537878141</v>
+      </c>
+      <c r="F73">
+        <v>0.5762060030459394</v>
+      </c>
+      <c r="G73">
+        <v>-0.2909037812390734</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.02357323870305718</v>
+        <v>0.10484091352219</v>
       </c>
       <c r="C74">
-        <v>0.04119931503601949</v>
+        <v>-0.1092145474948353</v>
       </c>
       <c r="D74">
-        <v>0.1724207859663622</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.009393712857059314</v>
+      </c>
+      <c r="E74">
+        <v>0.008029699137068828</v>
+      </c>
+      <c r="F74">
+        <v>-0.06938679022440887</v>
+      </c>
+      <c r="G74">
+        <v>0.08375214038193993</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.06426613342885959</v>
+        <v>0.2471755816804951</v>
       </c>
       <c r="C75">
-        <v>0.1044342382038301</v>
+        <v>-0.1532077538445682</v>
       </c>
       <c r="D75">
-        <v>0.3051957983109226</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03053929432993719</v>
+      </c>
+      <c r="E75">
+        <v>0.06770920474096188</v>
+      </c>
+      <c r="F75">
+        <v>-0.1671367612468996</v>
+      </c>
+      <c r="G75">
+        <v>-0.01883316639122648</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.02839315203500326</v>
+        <v>0.1185077111008305</v>
       </c>
       <c r="C76">
-        <v>0.05727025345564438</v>
+        <v>-0.1100026071543677</v>
       </c>
       <c r="D76">
-        <v>0.2089497782022893</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.01777525751891918</v>
+      </c>
+      <c r="E76">
+        <v>0.02572453516540054</v>
+      </c>
+      <c r="F76">
+        <v>-0.1050766680487487</v>
+      </c>
+      <c r="G76">
+        <v>0.06095548244643116</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.01780952015158822</v>
+        <v>0.06945042868128606</v>
       </c>
       <c r="C77">
-        <v>0.006354496390677498</v>
+        <v>-0.05808761570724433</v>
       </c>
       <c r="D77">
-        <v>0.07454257845196735</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.01066114341692114</v>
+      </c>
+      <c r="E77">
+        <v>-0.04795400126308069</v>
+      </c>
+      <c r="F77">
+        <v>0.009416682087529996</v>
+      </c>
+      <c r="G77">
+        <v>0.06742565786435291</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.008267920528327774</v>
+        <v>0.04331463863470292</v>
       </c>
       <c r="C78">
-        <v>0.00474784718006416</v>
+        <v>-0.0493818529489258</v>
       </c>
       <c r="D78">
-        <v>0.06791730659751467</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.005821505768083544</v>
+      </c>
+      <c r="E78">
+        <v>-0.02836077605950328</v>
+      </c>
+      <c r="F78">
+        <v>0.03755181715401336</v>
+      </c>
+      <c r="G78">
+        <v>0.1019719476401084</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>9.136732852020378e-05</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>-0.0003262660950851207</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-1.707841164306179e-06</v>
+      </c>
+      <c r="E79">
+        <v>-0.0006446740713872755</v>
+      </c>
+      <c r="F79">
+        <v>0.0008858224121308652</v>
+      </c>
+      <c r="G79">
+        <v>-0.0009941571443417457</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.02710942967423494</v>
+        <v>0.04324323143768934</v>
       </c>
       <c r="C80">
-        <v>0.01679032430470537</v>
+        <v>-0.05104265674887264</v>
       </c>
       <c r="D80">
-        <v>0.08403209282438923</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.01333980129775381</v>
+      </c>
+      <c r="E80">
+        <v>-0.02546675350608599</v>
+      </c>
+      <c r="F80">
+        <v>0.01304823434612551</v>
+      </c>
+      <c r="G80">
+        <v>0.05273889524615785</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.03897627867622823</v>
+        <v>0.1369581141905322</v>
       </c>
       <c r="C81">
-        <v>0.06139200840495953</v>
+        <v>-0.09577822476980423</v>
       </c>
       <c r="D81">
-        <v>0.1671342602282024</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01459941926459824</v>
+      </c>
+      <c r="E81">
+        <v>0.03289945757102655</v>
+      </c>
+      <c r="F81">
+        <v>-0.1265348319319116</v>
+      </c>
+      <c r="G81">
+        <v>0.02434127630312523</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.1331481191380005</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.07998154903215658</v>
       </c>
       <c r="D82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.009383338688902393</v>
+      </c>
+      <c r="E82">
+        <v>0.1002723264534528</v>
+      </c>
+      <c r="F82">
+        <v>-0.05015573602979014</v>
+      </c>
+      <c r="G82">
+        <v>0.06464778038813891</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.01387861488813909</v>
+        <v>0.03641698059388571</v>
       </c>
       <c r="C83">
-        <v>0.01223087543353521</v>
+        <v>-0.02845895118894018</v>
       </c>
       <c r="D83">
-        <v>0.03054067875510475</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.005935848627454266</v>
+      </c>
+      <c r="E83">
+        <v>-0.03059229856766229</v>
+      </c>
+      <c r="F83">
+        <v>0.02928054278632328</v>
+      </c>
+      <c r="G83">
+        <v>0.06351613436646569</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.06168514470130017</v>
+        <v>0.2122027052821768</v>
       </c>
       <c r="C85">
-        <v>0.08007515304850474</v>
+        <v>-0.1478990946437305</v>
       </c>
       <c r="D85">
-        <v>0.2815785907971887</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.01683516707950532</v>
+      </c>
+      <c r="E85">
+        <v>0.1017238379901006</v>
+      </c>
+      <c r="F85">
+        <v>-0.121297570872247</v>
+      </c>
+      <c r="G85">
+        <v>-0.05973653401950651</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.01531544831684967</v>
+        <v>0.01470056051830096</v>
       </c>
       <c r="C86">
-        <v>0.01207928054650177</v>
+        <v>-0.02550229484316919</v>
       </c>
       <c r="D86">
-        <v>0.04625621498654215</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.01160335723585915</v>
+      </c>
+      <c r="E86">
+        <v>-0.05148906603463908</v>
+      </c>
+      <c r="F86">
+        <v>0.02099149986938641</v>
+      </c>
+      <c r="G86">
+        <v>0.1897289643398933</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.004030848343069005</v>
+        <v>0.02156083060432732</v>
       </c>
       <c r="C87">
-        <v>-0.009062716483694538</v>
+        <v>-0.02196596839926276</v>
       </c>
       <c r="D87">
-        <v>0.0414476551083234</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.01187154556903565</v>
+      </c>
+      <c r="E87">
+        <v>-0.09352155500128416</v>
+      </c>
+      <c r="F87">
+        <v>0.01004379209261039</v>
+      </c>
+      <c r="G87">
+        <v>0.1213206631074834</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.04018161245579555</v>
+        <v>0.09442057895915944</v>
       </c>
       <c r="C88">
-        <v>0.01569160100526874</v>
+        <v>-0.06846980498566617</v>
       </c>
       <c r="D88">
-        <v>0.0512170204382352</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.02230530209408889</v>
+      </c>
+      <c r="E88">
+        <v>0.003324750845737664</v>
+      </c>
+      <c r="F88">
+        <v>-0.02051389540641425</v>
+      </c>
+      <c r="G88">
+        <v>0.1028185004525974</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.248169373238222</v>
+        <v>0.2325579400923299</v>
       </c>
       <c r="C89">
-        <v>0.3171310004610297</v>
+        <v>0.3682312633255885</v>
       </c>
       <c r="D89">
-        <v>-0.1800549614153852</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.0005334880741711147</v>
+      </c>
+      <c r="E89">
+        <v>0.0189639904272384</v>
+      </c>
+      <c r="F89">
+        <v>-0.02758408710653982</v>
+      </c>
+      <c r="G89">
+        <v>0.07082436713462185</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.2030593560191054</v>
+        <v>0.2079264362067324</v>
       </c>
       <c r="C90">
-        <v>0.2652096752910838</v>
+        <v>0.3178035150208988</v>
       </c>
       <c r="D90">
-        <v>-0.1679239368476879</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.004833998516462467</v>
+      </c>
+      <c r="E90">
+        <v>-0.0007974436289000453</v>
+      </c>
+      <c r="F90">
+        <v>-0.04691177546729321</v>
+      </c>
+      <c r="G90">
+        <v>0.0440498277343538</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.05367055168088699</v>
+        <v>0.1852241169177737</v>
       </c>
       <c r="C91">
-        <v>0.09081055700409067</v>
+        <v>-0.142708275346784</v>
       </c>
       <c r="D91">
-        <v>0.2286547900757213</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.02152675251709175</v>
+      </c>
+      <c r="E91">
+        <v>0.0627679646628161</v>
+      </c>
+      <c r="F91">
+        <v>-0.1425467537255056</v>
+      </c>
+      <c r="G91">
+        <v>0.03577759486911707</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1622222892050749</v>
+        <v>0.199115617355499</v>
       </c>
       <c r="C92">
-        <v>0.2613525793285164</v>
+        <v>0.257342254843366</v>
       </c>
       <c r="D92">
-        <v>-0.06754471034262001</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.03817426117533793</v>
+      </c>
+      <c r="E92">
+        <v>-0.04418633457638099</v>
+      </c>
+      <c r="F92">
+        <v>-0.05709418381712299</v>
+      </c>
+      <c r="G92">
+        <v>0.1131102608549476</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.2116911665304478</v>
+        <v>0.2308015510474385</v>
       </c>
       <c r="C93">
-        <v>0.2849051661525646</v>
+        <v>0.3139102769989395</v>
       </c>
       <c r="D93">
-        <v>-0.1348330487057633</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.01142805222739726</v>
+      </c>
+      <c r="E93">
+        <v>-0.005203322541318407</v>
+      </c>
+      <c r="F93">
+        <v>-0.04186727008484582</v>
+      </c>
+      <c r="G93">
+        <v>0.05989772692085248</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.1014075646365512</v>
+        <v>0.319248010939409</v>
       </c>
       <c r="C94">
-        <v>0.1216746200881861</v>
+        <v>-0.1792374648895853</v>
       </c>
       <c r="D94">
-        <v>0.3185694709366506</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.01810971290381572</v>
+      </c>
+      <c r="E94">
+        <v>0.2132935352670697</v>
+      </c>
+      <c r="F94">
+        <v>-0.4793653106025288</v>
+      </c>
+      <c r="G94">
+        <v>-0.4149654956995558</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.003361372347561608</v>
+        <v>0.1011836019413235</v>
       </c>
       <c r="C95">
-        <v>0.007957378517719939</v>
+        <v>-0.08821548192813783</v>
       </c>
       <c r="D95">
-        <v>0.1175517701783955</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.009999773687517827</v>
+      </c>
+      <c r="E95">
+        <v>-0.0827222642362532</v>
+      </c>
+      <c r="F95">
+        <v>0.2033804623844941</v>
+      </c>
+      <c r="G95">
+        <v>-0.008555100529427808</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.08569030997005675</v>
+        <v>0.1951323752544443</v>
       </c>
       <c r="C98">
-        <v>0.1362029874300192</v>
+        <v>-0.04491093482856068</v>
       </c>
       <c r="D98">
-        <v>0.1377029192876338</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01387613111751628</v>
+      </c>
+      <c r="E98">
+        <v>-0.06894827790593856</v>
+      </c>
+      <c r="F98">
+        <v>0.2383779923663213</v>
+      </c>
+      <c r="G98">
+        <v>-0.02833565693898205</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.01051278331326197</v>
+        <v>0.008845627972934408</v>
       </c>
       <c r="C101">
-        <v>0.00383148697601298</v>
+        <v>-0.0231366536320333</v>
       </c>
       <c r="D101">
-        <v>0.01936469428680879</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.009146222760390989</v>
+      </c>
+      <c r="E101">
+        <v>-0.004096377337510972</v>
+      </c>
+      <c r="F101">
+        <v>-0.01530000688084526</v>
+      </c>
+      <c r="G101">
+        <v>0.09589313067873488</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.03952905098184871</v>
+        <v>0.1156882504599848</v>
       </c>
       <c r="C102">
-        <v>0.04038655798248596</v>
+        <v>-0.08397763246274896</v>
       </c>
       <c r="D102">
-        <v>0.1332369347971857</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.001013112086298297</v>
+      </c>
+      <c r="E102">
+        <v>0.03517716465896285</v>
+      </c>
+      <c r="F102">
+        <v>-0.0410937860954611</v>
+      </c>
+      <c r="G102">
+        <v>0.01107107934900674</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.7935041188753532</v>
+        <v>0.02127231809575706</v>
       </c>
       <c r="C104">
-        <v>-0.5931763308770185</v>
+        <v>0.03085727225703901</v>
       </c>
       <c r="D104">
-        <v>-0.03534478268394263</v>
+        <v>0.9878956673531796</v>
+      </c>
+      <c r="E104">
+        <v>0.04790186626298973</v>
+      </c>
+      <c r="F104">
+        <v>-0.03362917699428264</v>
+      </c>
+      <c r="G104">
+        <v>-0.03953636915135891</v>
       </c>
     </row>
   </sheetData>
